--- a/m_03/m_03_v_03_xlookup/m_03_v_03.xlsx
+++ b/m_03/m_03_v_03_xlookup/m_03_v_03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27404"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\advanced_analytics_excel_video_course\m_03\m_03_v_03_xlookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18F6F96-4F26-42DF-8DD5-A4F20AD1BF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8818F9F6-05F6-445B-BACE-3F76667A30F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="xlookup" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>product_id</t>
   </si>
@@ -133,13 +133,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
@@ -163,27 +157,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F9F3E84B-F706-4DD6-8CCD-E4438BCD0D12}" name="transactions" displayName="transactions" ref="A1:H21" totalsRowShown="0">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F9F3E84B-F706-4DD6-8CCD-E4438BCD0D12}" name="transactions" displayName="transactions" ref="A1:F21" totalsRowShown="0">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{EEF479B5-2E93-497D-8501-736E4296481E}" name="trans_id"/>
-    <tableColumn id="2" xr3:uid="{8D4739B4-CB7C-43BF-BB19-2204FEA8792E}" name="trans_date" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{8D4739B4-CB7C-43BF-BB19-2204FEA8792E}" name="trans_date" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{FF52F6C4-75D3-401B-B687-5077D7CEED93}" name="branch_id"/>
     <tableColumn id="4" xr3:uid="{B9A8441C-8F6E-4200-861D-54E1DAFB6C03}" name="product_id"/>
     <tableColumn id="5" xr3:uid="{82220B8E-F7E4-4664-B59E-50A502801415}" name="quantity"/>
-    <tableColumn id="6" xr3:uid="{7B1B0320-C7A7-4FFA-9221-983D02057C07}" name="total_price" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{773CABB2-4BB0-4CE0-81EA-E99F757B0B34}" name="branch_name" dataDxfId="0">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]], branches[branch_id], branches[branch_name])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{99BFC99C-2436-45DB-810C-FCC1E6BD4CE1}" name="product_name" dataDxfId="1">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Unknown")</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="6" xr3:uid="{7B1B0320-C7A7-4FFA-9221-983D02057C07}" name="total_price" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{14C71386-E2D6-409C-A9CE-876265D941E8}" name="branches" displayName="branches" ref="J1:K4" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{14C71386-E2D6-409C-A9CE-876265D941E8}" name="branches" displayName="branches" ref="H1:I4" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A4F43065-D356-49D8-AD78-95E1645E704D}" name="branch_name"/>
     <tableColumn id="2" xr3:uid="{53F8DC9D-8E7B-4D43-B7F4-93EA90978332}" name="branch_id"/>
@@ -193,11 +181,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AB0967EE-D78A-47C6-BC15-4E8FC012AEC0}" name="products" displayName="products" ref="J7:L12" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AB0967EE-D78A-47C6-BC15-4E8FC012AEC0}" name="products" displayName="products" ref="H7:J12" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="2" xr3:uid="{5D9FF2AA-097F-47C6-9D85-4DA8673A8912}" name="product_id"/>
     <tableColumn id="4" xr3:uid="{28705471-6AD3-47AC-9A86-8A9C23F7F018}" name="product_name"/>
-    <tableColumn id="3" xr3:uid="{843E4B4C-745F-4EC9-8059-C1DBE3428C67}" name="product_price" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{843E4B4C-745F-4EC9-8059-C1DBE3428C67}" name="product_price" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -490,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0654905A-1567-4C76-B37B-05DFF7B7C586}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A2" sqref="A2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -504,15 +492,13 @@
     <col min="4" max="4" width="11.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.59765625" customWidth="1"/>
-    <col min="10" max="10" width="11.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.86328125" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -531,20 +517,14 @@
       <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -563,22 +543,14 @@
       <c r="F2" s="3">
         <v>99.9</v>
       </c>
-      <c r="G2" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]], branches[branch_id], branches[branch_name])</f>
-        <v>Scranton</v>
-      </c>
-      <c r="H2" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Unknown")</f>
-        <v>Copy Paper</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -597,22 +569,14 @@
       <c r="F3" s="3">
         <v>12.45</v>
       </c>
-      <c r="G3" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]], branches[branch_id], branches[branch_name])</f>
-        <v>Scranton</v>
-      </c>
-      <c r="H3" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Unknown")</f>
-        <v>Sticky Notes</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -631,22 +595,14 @@
       <c r="F4" s="3">
         <v>199.8</v>
       </c>
-      <c r="G4" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]], branches[branch_id], branches[branch_name])</f>
-        <v>Stamford</v>
-      </c>
-      <c r="H4" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Unknown")</f>
-        <v>Copy Paper</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="H4" t="s">
         <v>13</v>
       </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -665,16 +621,8 @@
       <c r="F5" s="3">
         <v>39.979999999999997</v>
       </c>
-      <c r="G5" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]], branches[branch_id], branches[branch_name])</f>
-        <v>Nashua</v>
-      </c>
-      <c r="H5" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Unknown")</f>
-        <v>Printer Ink</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -693,16 +641,8 @@
       <c r="F6" s="3">
         <v>149.85</v>
       </c>
-      <c r="G6" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]], branches[branch_id], branches[branch_name])</f>
-        <v>Scranton</v>
-      </c>
-      <c r="H6" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Unknown")</f>
-        <v>Unknown</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -721,25 +661,17 @@
       <c r="F7" s="3">
         <v>14.97</v>
       </c>
-      <c r="G7" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]], branches[branch_id], branches[branch_name])</f>
-        <v>Stamford</v>
-      </c>
-      <c r="H7" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Unknown")</f>
-        <v>Legal Pads</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="H7" t="s">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -758,25 +690,17 @@
       <c r="F8" s="3">
         <v>24.9</v>
       </c>
-      <c r="G8" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]], branches[branch_id], branches[branch_name])</f>
-        <v>Stamford</v>
-      </c>
-      <c r="H8" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Unknown")</f>
-        <v>Sticky Notes</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
+      <c r="J8" s="3">
         <v>9.99</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -795,25 +719,17 @@
       <c r="F9" s="3">
         <v>55.92</v>
       </c>
-      <c r="G9" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]], branches[branch_id], branches[branch_name])</f>
-        <v>Scranton</v>
-      </c>
-      <c r="H9" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Unknown")</f>
-        <v>Envelopes</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3">
+      <c r="J9" s="3">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -832,25 +748,17 @@
       <c r="F10" s="3">
         <v>99.95</v>
       </c>
-      <c r="G10" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]], branches[branch_id], branches[branch_name])</f>
-        <v>Nashua</v>
-      </c>
-      <c r="H10" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Unknown")</f>
-        <v>Printer Ink</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="3">
+      <c r="J10" s="3">
         <v>19.989999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -869,25 +777,17 @@
       <c r="F11" s="3">
         <v>119.88</v>
       </c>
-      <c r="G11" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]], branches[branch_id], branches[branch_name])</f>
-        <v>Nashua</v>
-      </c>
-      <c r="H11" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Unknown")</f>
-        <v>Copy Paper</v>
-      </c>
-      <c r="J11">
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="K11" t="s">
+      <c r="I11" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="3">
+      <c r="J11" s="3">
         <v>6.99</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -906,25 +806,17 @@
       <c r="F12" s="3">
         <v>17.43</v>
       </c>
-      <c r="G12" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]], branches[branch_id], branches[branch_name])</f>
-        <v>Scranton</v>
-      </c>
-      <c r="H12" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Unknown")</f>
-        <v>Sticky Notes</v>
-      </c>
-      <c r="J12">
+      <c r="H12">
         <v>5</v>
       </c>
-      <c r="K12" t="s">
+      <c r="I12" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3">
+      <c r="J12" s="3">
         <v>4.99</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -943,16 +835,8 @@
       <c r="F13" s="3">
         <v>20.97</v>
       </c>
-      <c r="G13" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]], branches[branch_id], branches[branch_name])</f>
-        <v>Stamford</v>
-      </c>
-      <c r="H13" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Unknown")</f>
-        <v>Envelopes</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -971,16 +855,8 @@
       <c r="F14" s="3">
         <v>49.9</v>
       </c>
-      <c r="G14" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]], branches[branch_id], branches[branch_name])</f>
-        <v>Scranton</v>
-      </c>
-      <c r="H14" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Unknown")</f>
-        <v>Legal Pads</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -999,16 +875,8 @@
       <c r="F15" s="3">
         <v>79.959999999999994</v>
       </c>
-      <c r="G15" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]], branches[branch_id], branches[branch_name])</f>
-        <v>Stamford</v>
-      </c>
-      <c r="H15" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Unknown")</f>
-        <v>Unknown</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1027,16 +895,8 @@
       <c r="F16" s="3">
         <v>14.94</v>
       </c>
-      <c r="G16" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]], branches[branch_id], branches[branch_name])</f>
-        <v>Nashua</v>
-      </c>
-      <c r="H16" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Unknown")</f>
-        <v>Sticky Notes</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1055,16 +915,8 @@
       <c r="F17" s="3">
         <v>34.950000000000003</v>
       </c>
-      <c r="G17" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]], branches[branch_id], branches[branch_name])</f>
-        <v>Scranton</v>
-      </c>
-      <c r="H17" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Unknown")</f>
-        <v>Envelopes</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1083,16 +935,8 @@
       <c r="F18" s="3">
         <v>79.92</v>
       </c>
-      <c r="G18" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]], branches[branch_id], branches[branch_name])</f>
-        <v>Stamford</v>
-      </c>
-      <c r="H18" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Unknown")</f>
-        <v>Copy Paper</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1111,16 +955,8 @@
       <c r="F19" s="3">
         <v>74.849999999999994</v>
       </c>
-      <c r="G19" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]], branches[branch_id], branches[branch_name])</f>
-        <v>Nashua</v>
-      </c>
-      <c r="H19" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Unknown")</f>
-        <v>Legal Pads</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1139,16 +975,8 @@
       <c r="F20" s="3">
         <v>59.97</v>
       </c>
-      <c r="G20" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]], branches[branch_id], branches[branch_name])</f>
-        <v>Scranton</v>
-      </c>
-      <c r="H20" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Unknown")</f>
-        <v>Printer Ink</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1166,14 +994,6 @@
       </c>
       <c r="F21" s="3">
         <v>69.900000000000006</v>
-      </c>
-      <c r="G21" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]], branches[branch_id], branches[branch_name])</f>
-        <v>Stamford</v>
-      </c>
-      <c r="H21" s="3" t="str">
-        <f>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Unknown")</f>
-        <v>Envelopes</v>
       </c>
     </row>
   </sheetData>
